--- a/TestDeck.xlsx
+++ b/TestDeck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="260" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Good Morning</t>
   </si>
@@ -49,6 +49,17 @@
   </si>
   <si>
     <t xml:space="preserve"> ペンです</t>
+  </si>
+  <si>
+    <t>Last line</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終行</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -425,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C8"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -471,6 +482,14 @@
       </c>
       <c r="C8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
